--- a/assets/formatos_cargue/30_formato_cargue_estudiantes_general.xlsx
+++ b/assets/formatos_cargue/30_formato_cargue_estudiantes_general.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ele4\assets\formatos_cargue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\editores\assets\formatos_cargue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mauricio</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mauricio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: Pagado No,
+1: Pagado Sí</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mauricio</author>
@@ -55,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>nombres</t>
   </si>
@@ -175,6 +210,9 @@
   </si>
   <si>
     <t>A17068W01285</t>
+  </si>
+  <si>
+    <t>pago</t>
   </si>
 </sst>
 </file>
@@ -602,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +657,7 @@
     <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.5703125" style="3" customWidth="1"/>
@@ -649,7 +687,9 @@
       <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -672,10 +712,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>4651</v>
+        <v>4667</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -692,10 +735,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>4652</v>
+        <v>4667</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,6 +760,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
